--- a/Excel/Akash.xlsx
+++ b/Excel/Akash.xlsx
@@ -15,34 +15,44 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
-  <si>
-    <t>Akash Sharma</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Bikash Sharma</t>
   </si>
   <si>
-    <t>Prakash Sharma</t>
+    <t>bikashsharma0775@gmail.com</t>
   </si>
   <si>
     <t>Sandhya Sharma</t>
   </si>
   <si>
-    <t>Manoj Sharma</t>
+    <t>misssandhyasharma2022@gmail.com</t>
+  </si>
+  <si>
+    <t>Vikash Jha</t>
+  </si>
+  <si>
+    <t>vjha98021@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -62,13 +72,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -361,45 +377,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>3</v>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/Excel/Akash.xlsx
+++ b/Excel/Akash.xlsx
@@ -15,12 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Bikash Sharma</t>
-  </si>
-  <si>
-    <t>bikashsharma0775@gmail.com</t>
   </si>
   <si>
     <t>Sandhya Sharma</t>
@@ -29,10 +26,7 @@
     <t>misssandhyasharma2022@gmail.com</t>
   </si>
   <si>
-    <t>Vikash Jha</t>
-  </si>
-  <si>
-    <t>vjha98021@gmail.com</t>
+    <t>bikashsharma0775@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -380,40 +374,37 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="B3" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>
     <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Excel/Akash.xlsx
+++ b/Excel/Akash.xlsx
@@ -374,7 +374,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Excel/Akash.xlsx
+++ b/Excel/Akash.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Bikash Sharma</t>
   </si>
@@ -27,6 +27,18 @@
   </si>
   <si>
     <t>bikashsharma0775@gmail.com</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Bad</t>
   </si>
 </sst>
 </file>
@@ -371,40 +383,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:4">
       <c r="B3" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="D1" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
